--- a/WKRDB-EST2/subgroupParticipants.xlsx
+++ b/WKRDB-EST2/subgroupParticipants.xlsx
@@ -81,9 +81,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t xml:space="preserve">Marta, Henrik, </t>
-  </si>
-  <si>
     <t>Kirsten</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Nuno, Josefina, Kasia</t>
+  </si>
+  <si>
+    <t>Marta, Henrik, Johnathan</t>
   </si>
 </sst>
 </file>
@@ -224,39 +224,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +541,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,11 +550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -563,29 +563,29 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -594,29 +594,29 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -625,29 +625,29 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -656,29 +656,29 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -687,29 +687,29 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -718,39 +718,39 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="D17:F19"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F4"/>
     <mergeCell ref="D5:F7"/>
     <mergeCell ref="D8:F10"/>
     <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="D17:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WKRDB-EST2/subgroupParticipants.xlsx
+++ b/WKRDB-EST2/subgroupParticipants.xlsx
@@ -81,22 +81,22 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>Kirsten</t>
-  </si>
-  <si>
-    <t>Edvin</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Liz, Annica</t>
-  </si>
-  <si>
-    <t>Nuno, Josefina, Kasia</t>
-  </si>
-  <si>
     <t>Marta, Henrik, Johnathan</t>
+  </si>
+  <si>
+    <t>Kirsten, Chun, Hans</t>
+  </si>
+  <si>
+    <t>Nuno, Josefina, Kasia, Ana, Jon</t>
+  </si>
+  <si>
+    <t>David, Richard, Petri</t>
+  </si>
+  <si>
+    <t>Liz, Annica, Sven</t>
+  </si>
+  <si>
+    <t>Edvin, Karolina, Julia</t>
   </si>
 </sst>
 </file>
@@ -228,35 +228,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,11 +550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -563,29 +563,29 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -594,29 +594,29 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -625,29 +625,29 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -656,29 +656,29 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -687,29 +687,29 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -718,29 +718,29 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
